--- a/baseline_decision_score.xlsx
+++ b/baseline_decision_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe T-B\Documents\PythonProject\GTI770_Labo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD930A9-1491-468E-84EF-EB02D51E0C03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E014FB-8569-4353-9DB9-F7C250A57F65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,18 +40,12 @@
     <t>Params</t>
   </si>
   <si>
-    <t>C = 10, gamma = 10, kernel = rbf</t>
-  </si>
-  <si>
     <t>Bayes (Gaussian)</t>
   </si>
   <si>
     <t>priors=None</t>
   </si>
   <si>
-    <t>criterion='entropy', max_depth=15, min_samples_leaf=1</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>JMIR Derivatives</t>
+  </si>
+  <si>
+    <t>C = 1, gamma = 10, kernel = rbf</t>
+  </si>
+  <si>
+    <t>criterion='entropy', max_depth=14, min_samples_leaf=1</t>
   </si>
 </sst>
 </file>
@@ -389,13 +389,13 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="49.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -404,10 +404,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -421,16 +421,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/baseline_decision_score.xlsx
+++ b/baseline_decision_score.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe T-B\Documents\PythonProject\GTI770_Labo1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD930A9-1491-468E-84EF-EB02D51E0C03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="4100" windowWidth="14380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
   <si>
     <t>Accuracy</t>
   </si>
@@ -28,61 +34,50 @@
     <t>F1</t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Bayes (Gaussian)</t>
+  </si>
+  <si>
+    <t>JMIR Derivatives</t>
+  </si>
+  <si>
+    <t>priors=None</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Rythm Histogram</t>
+  </si>
+  <si>
+    <t>criterion='entropy', max_depth=14, min_samples_leaf=1</t>
   </si>
   <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>Params</t>
-  </si>
-  <si>
-    <t>C = 10, gamma = 10, kernel = rbf</t>
-  </si>
-  <si>
-    <t>Bayes (Gaussian)</t>
-  </si>
-  <si>
-    <t>priors=None</t>
-  </si>
-  <si>
-    <t>criterion='entropy', max_depth=15, min_samples_leaf=1</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
     <t>MARSYAS</t>
   </si>
   <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Rythm Histogram</t>
-  </si>
-  <si>
-    <t>JMIR Derivatives</t>
+    <t>C = 1, gamma = 10, kernel = rbf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,28 +93,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -385,125 +371,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="49.7265625" customWidth="1"/>
+    <col customWidth="1" max="2" min="1" width="15.7265625"/>
+    <col customWidth="1" max="3" min="3" width="10.6328125"/>
+    <col customWidth="1" max="4" min="4" width="49.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" t="n">
+        <v>0.105621124224845</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08664500012505592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1050210042008402</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1006068909374664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2850570114022805</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2626440303532416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="D18" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="D19" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>